--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1695814.348363516</v>
+        <v>-1698473.701335529</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14944711.06074497</v>
+        <v>14944711.06074496</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.9430992003371</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>118.2383708630608</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>264.9763506322047</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.56020443560018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>145.9219060821661</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>256.942264672087</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>90.88891101394725</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6164249645471</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>164.8914808188865</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>66.3862715221881</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>168.1727619484249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11.64558632322244</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>154.1566586333672</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>31.24750433886579</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673068</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>206.5509998577724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>67.96386702300485</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703279</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.3613954702488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703275</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1321.060699306039</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>952.0981823656275</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1707.660539370161</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1707.660539370161</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1707.660539370161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1707.660539370161</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1597.496418624396</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1597.496418624396</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1374.517937819132</v>
+        <v>2414.943463670695</v>
       </c>
       <c r="U4" t="n">
-        <v>1374.517937819132</v>
+        <v>2414.943463670695</v>
       </c>
       <c r="V4" t="n">
-        <v>1119.833449613245</v>
+        <v>2160.258975464808</v>
       </c>
       <c r="W4" t="n">
-        <v>830.4162795762841</v>
+        <v>1870.841805427847</v>
       </c>
       <c r="X4" t="n">
-        <v>602.4267286782667</v>
+        <v>1642.85225452983</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.6341495347366</v>
+        <v>1422.0596753863</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1819.43134115423</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>1450.468824213819</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>1092.203125607068</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>1092.203125607068</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>681.2172208174607</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2345.833140104457</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130042</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.43134115423</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>114.543262603435</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751768</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.2629842544534</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="C7" t="n">
-        <v>517.2629842544534</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.462284332961</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1255.462284332961</v>
+        <v>1469.889068742289</v>
       </c>
       <c r="W7" t="n">
-        <v>966.0451142960009</v>
+        <v>1180.471898705328</v>
       </c>
       <c r="X7" t="n">
-        <v>738.0555633979835</v>
+        <v>952.4823478073108</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.2629842544534</v>
+        <v>952.4823478073108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1642.972675199009</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.010158258597</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1274.010158258597</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>888.2219056603531</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792693</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522579</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261499</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>953.2602595377772</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>784.3240766098703</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1681.750294246659</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1392.647427372303</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1137.962939166416</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>1137.962939166416</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X10" t="n">
-        <v>909.9733882683989</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>1134.908724368017</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>983.34034846144</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4041655335332</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>664.2875261211974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>516.3744325388043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510513</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>983.34034846144</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191927</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349518</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5525,40 +5525,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637309</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121657</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121657</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121657</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.294644713842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859351</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.294644713842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516146</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167374</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,43 +6230,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6598,28 +6598,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883066889</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.7907424631435</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>116.2265708018236</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>62.77590783793022</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>74.82678991504579</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1735436840655</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392193737</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>10.85445046951585</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219409</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.25407754796359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194134</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045147</v>
+        <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26323,7 +26323,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="F2" t="n">
-        <v>121071.989953501</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="G2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26350,7 +26350,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363169</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819057</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363174</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46585.95611007038</v>
+        <v>46585.95611007044</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810796</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675651</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756497</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756495</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985002</v>
       </c>
       <c r="L4" t="n">
+        <v>17328.05961985005</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17328.05961985003</v>
+      </c>
+      <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="M4" t="n">
-        <v>17328.05961985006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985008</v>
-      </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="P4" t="n">
         <v>17328.05961985006</v>
@@ -26470,25 +26470,25 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154808.503115383</v>
+        <v>-1155203.324056537</v>
       </c>
       <c r="C6" t="n">
         <v>-106507.7806523047</v>
       </c>
       <c r="D6" t="n">
-        <v>-265929.0506501961</v>
+        <v>-265929.0506501966</v>
       </c>
       <c r="E6" t="n">
-        <v>-314800.2020345188</v>
+        <v>-314834.9399599534</v>
       </c>
       <c r="F6" t="n">
-        <v>10612.25977283729</v>
+        <v>10577.52184740151</v>
       </c>
       <c r="G6" t="n">
-        <v>10612.25977283723</v>
+        <v>10577.52184740151</v>
       </c>
       <c r="H6" t="n">
-        <v>10612.25977283726</v>
+        <v>10577.52184740151</v>
       </c>
       <c r="I6" t="n">
-        <v>10612.25977283716</v>
+        <v>10577.52184740153</v>
       </c>
       <c r="J6" t="n">
-        <v>-156992.9180371452</v>
+        <v>-157027.6559625812</v>
       </c>
       <c r="K6" t="n">
-        <v>-16763.62798775484</v>
+        <v>-16763.62798775473</v>
       </c>
       <c r="L6" t="n">
-        <v>-45629.88000231352</v>
+        <v>-45629.8800023138</v>
       </c>
       <c r="M6" t="n">
-        <v>-82390.93792963499</v>
+        <v>-82390.93792963479</v>
       </c>
       <c r="N6" t="n">
-        <v>2664.090005877049</v>
+        <v>2664.090005876991</v>
       </c>
       <c r="O6" t="n">
-        <v>2664.090005877035</v>
+        <v>2664.090005876962</v>
       </c>
       <c r="P6" t="n">
-        <v>-16763.62798775475</v>
+        <v>-16763.62798775471</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,37 +26790,37 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022532</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000382</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022532</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203961</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022532</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>236.4446707576221</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.225644596970739</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.99736798397343</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>154.6054381008669</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>236.8633474561877</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,10 +27828,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>10.61072915665352</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>87.24616250494148</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>340.4897742195233</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.0651767076287</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>136.9698866949899</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>65.39229064280195</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28275,13 +28275,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286697</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302361</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32549,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>576.0573465136297</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502009</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922414</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35030,7 +35030,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884371</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191357</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899085</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579163</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>433.4611020691852</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587065</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
